--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Slitrk1-Ptprs.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Slitrk1-Ptprs.xlsx
@@ -537,16 +537,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.006001333333333333</v>
+        <v>0.018579</v>
       </c>
       <c r="H2">
-        <v>0.018004</v>
+        <v>0.055737</v>
       </c>
       <c r="I2">
-        <v>0.01048503477346291</v>
+        <v>0.06672828251023905</v>
       </c>
       <c r="J2">
-        <v>0.01048503477346291</v>
+        <v>0.06672828251023905</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.127188333333334</v>
+        <v>3.556762333333333</v>
       </c>
       <c r="N2">
-        <v>12.381565</v>
+        <v>10.670287</v>
       </c>
       <c r="O2">
-        <v>0.05613591760223621</v>
+        <v>0.04280930450251701</v>
       </c>
       <c r="P2">
-        <v>0.05613591760223621</v>
+        <v>0.04280930450251701</v>
       </c>
       <c r="Q2">
-        <v>0.02476863291777778</v>
+        <v>0.06608108739100001</v>
       </c>
       <c r="R2">
-        <v>0.22291769626</v>
+        <v>0.594729786519</v>
       </c>
       <c r="S2">
-        <v>0.0005885870480996956</v>
+        <v>0.002856591364910804</v>
       </c>
       <c r="T2">
-        <v>0.0005885870480996956</v>
+        <v>0.002856591364910803</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.006001333333333333</v>
+        <v>0.018579</v>
       </c>
       <c r="H3">
-        <v>0.018004</v>
+        <v>0.055737</v>
       </c>
       <c r="I3">
-        <v>0.01048503477346291</v>
+        <v>0.06672828251023905</v>
       </c>
       <c r="J3">
-        <v>0.01048503477346291</v>
+        <v>0.06672828251023905</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>141.74704</v>
       </c>
       <c r="O3">
-        <v>0.6426570597336345</v>
+        <v>0.5686906263805706</v>
       </c>
       <c r="P3">
-        <v>0.6426570597336345</v>
+        <v>0.5686906263805704</v>
       </c>
       <c r="Q3">
-        <v>0.2835570786844444</v>
+        <v>0.87783941872</v>
       </c>
       <c r="R3">
-        <v>2.55201370816</v>
+        <v>7.90055476848</v>
       </c>
       <c r="S3">
-        <v>0.006738281618718591</v>
+        <v>0.03794774877804751</v>
       </c>
       <c r="T3">
-        <v>0.006738281618718591</v>
+        <v>0.0379477487780475</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.006001333333333333</v>
+        <v>0.018579</v>
       </c>
       <c r="H4">
-        <v>0.018004</v>
+        <v>0.055737</v>
       </c>
       <c r="I4">
-        <v>0.01048503477346291</v>
+        <v>0.06672828251023905</v>
       </c>
       <c r="J4">
-        <v>0.01048503477346291</v>
+        <v>0.06672828251023905</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>13.92629833333334</v>
+        <v>24.53173066666666</v>
       </c>
       <c r="N4">
-        <v>41.77889500000001</v>
+        <v>73.595192</v>
       </c>
       <c r="O4">
-        <v>0.1894184303222152</v>
+        <v>0.2952646900921413</v>
       </c>
       <c r="P4">
-        <v>0.1894184303222152</v>
+        <v>0.2952646900921412</v>
       </c>
       <c r="Q4">
-        <v>0.08357635839777779</v>
+        <v>0.455775024056</v>
       </c>
       <c r="R4">
-        <v>0.7521872255800001</v>
+        <v>4.101975216504</v>
       </c>
       <c r="S4">
-        <v>0.001986058828663188</v>
+        <v>0.01970250565576658</v>
       </c>
       <c r="T4">
-        <v>0.001986058828663189</v>
+        <v>0.01970250565576658</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.006001333333333333</v>
+        <v>0.018579</v>
       </c>
       <c r="H5">
-        <v>0.018004</v>
+        <v>0.055737</v>
       </c>
       <c r="I5">
-        <v>0.01048503477346291</v>
+        <v>0.06672828251023905</v>
       </c>
       <c r="J5">
-        <v>0.01048503477346291</v>
+        <v>0.06672828251023905</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.218847999999999</v>
+        <v>7.746355333333334</v>
       </c>
       <c r="N5">
-        <v>24.656544</v>
+        <v>23.239066</v>
       </c>
       <c r="O5">
-        <v>0.1117885923419141</v>
+        <v>0.09323537902477132</v>
       </c>
       <c r="P5">
-        <v>0.1117885923419141</v>
+        <v>0.0932353790247713</v>
       </c>
       <c r="Q5">
-        <v>0.04932404646399999</v>
+        <v>0.143919535738</v>
       </c>
       <c r="R5">
-        <v>0.4439164181759999</v>
+        <v>1.295275821642</v>
       </c>
       <c r="S5">
-        <v>0.001172107277981439</v>
+        <v>0.006221436711514156</v>
       </c>
       <c r="T5">
-        <v>0.001172107277981439</v>
+        <v>0.006221436711514155</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>0.657331</v>
       </c>
       <c r="I6">
-        <v>0.3828115081468091</v>
+        <v>0.7869560376543039</v>
       </c>
       <c r="J6">
-        <v>0.3828115081468091</v>
+        <v>0.786956037654304</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.127188333333334</v>
+        <v>3.556762333333333</v>
       </c>
       <c r="N6">
-        <v>12.381565</v>
+        <v>10.670287</v>
       </c>
       <c r="O6">
-        <v>0.05613591760223621</v>
+        <v>0.04280930450251701</v>
       </c>
       <c r="P6">
-        <v>0.05613591760223621</v>
+        <v>0.04280930450251701</v>
       </c>
       <c r="Q6">
-        <v>0.9043096114461111</v>
+        <v>0.7793233804441111</v>
       </c>
       <c r="R6">
-        <v>8.138786503015002</v>
+        <v>7.013910423997</v>
       </c>
       <c r="S6">
-        <v>0.02148947527851705</v>
+        <v>0.03368904064603734</v>
       </c>
       <c r="T6">
-        <v>0.02148947527851705</v>
+        <v>0.03368904064603734</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>0.657331</v>
       </c>
       <c r="I7">
-        <v>0.3828115081468091</v>
+        <v>0.7869560376543039</v>
       </c>
       <c r="J7">
-        <v>0.3828115081468091</v>
+        <v>0.786956037654304</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>141.74704</v>
       </c>
       <c r="O7">
-        <v>0.6426570597336345</v>
+        <v>0.5686906263805706</v>
       </c>
       <c r="P7">
-        <v>0.6426570597336345</v>
+        <v>0.5686906263805704</v>
       </c>
       <c r="Q7">
         <v>10.35274706113778</v>
@@ -883,10 +883,10 @@
         <v>93.17472355024</v>
       </c>
       <c r="S7">
-        <v>0.2460165182578266</v>
+        <v>0.447534521987598</v>
       </c>
       <c r="T7">
-        <v>0.2460165182578266</v>
+        <v>0.4475345219875979</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>0.657331</v>
       </c>
       <c r="I8">
-        <v>0.3828115081468091</v>
+        <v>0.7869560376543039</v>
       </c>
       <c r="J8">
-        <v>0.3828115081468091</v>
+        <v>0.786956037654304</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>13.92629833333334</v>
+        <v>24.53173066666666</v>
       </c>
       <c r="N8">
-        <v>41.77889500000001</v>
+        <v>73.595192</v>
       </c>
       <c r="O8">
-        <v>0.1894184303222152</v>
+        <v>0.2952646900921413</v>
       </c>
       <c r="P8">
-        <v>0.1894184303222152</v>
+        <v>0.2952646900921412</v>
       </c>
       <c r="Q8">
-        <v>3.051395869916111</v>
+        <v>5.375155683616888</v>
       </c>
       <c r="R8">
-        <v>27.46256282924501</v>
+        <v>48.376401152552</v>
       </c>
       <c r="S8">
-        <v>0.07251155498244846</v>
+        <v>0.2323603305741375</v>
       </c>
       <c r="T8">
-        <v>0.07251155498244849</v>
+        <v>0.2323603305741375</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>0.657331</v>
       </c>
       <c r="I9">
-        <v>0.3828115081468091</v>
+        <v>0.7869560376543039</v>
       </c>
       <c r="J9">
-        <v>0.3828115081468091</v>
+        <v>0.786956037654304</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.218847999999999</v>
+        <v>7.746355333333334</v>
       </c>
       <c r="N9">
-        <v>24.656544</v>
+        <v>23.239066</v>
       </c>
       <c r="O9">
-        <v>0.1117885923419141</v>
+        <v>0.09323537902477132</v>
       </c>
       <c r="P9">
-        <v>0.1117885923419141</v>
+        <v>0.0932353790247713</v>
       </c>
       <c r="Q9">
-        <v>1.800834524896</v>
+        <v>1.697306499205111</v>
       </c>
       <c r="R9">
-        <v>16.207510724064</v>
+        <v>15.275758492846</v>
       </c>
       <c r="S9">
-        <v>0.04279395962801696</v>
+        <v>0.07337214444653123</v>
       </c>
       <c r="T9">
-        <v>0.04279395962801696</v>
+        <v>0.07337214444653123</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,22 +1027,22 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.3472596666666667</v>
+        <v>0.04073833333333333</v>
       </c>
       <c r="H10">
-        <v>1.041779</v>
+        <v>0.122215</v>
       </c>
       <c r="I10">
-        <v>0.6067034570797279</v>
+        <v>0.146315679835457</v>
       </c>
       <c r="J10">
-        <v>0.6067034570797279</v>
+        <v>0.146315679835457</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.127188333333334</v>
+        <v>3.556762333333333</v>
       </c>
       <c r="N10">
-        <v>12.381565</v>
+        <v>10.670287</v>
       </c>
       <c r="O10">
-        <v>0.05613591760223621</v>
+        <v>0.04280930450251701</v>
       </c>
       <c r="P10">
-        <v>0.05613591760223621</v>
+        <v>0.04280930450251701</v>
       </c>
       <c r="Q10">
-        <v>1.433206044903889</v>
+        <v>0.1448965695227778</v>
       </c>
       <c r="R10">
-        <v>12.898854404135</v>
+        <v>1.304069125705</v>
       </c>
       <c r="S10">
-        <v>0.03405785527561946</v>
+        <v>0.006263672491568865</v>
       </c>
       <c r="T10">
-        <v>0.03405785527561946</v>
+        <v>0.006263672491568864</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,22 +1089,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.3472596666666667</v>
+        <v>0.04073833333333333</v>
       </c>
       <c r="H11">
-        <v>1.041779</v>
+        <v>0.122215</v>
       </c>
       <c r="I11">
-        <v>0.6067034570797279</v>
+        <v>0.146315679835457</v>
       </c>
       <c r="J11">
-        <v>0.6067034570797279</v>
+        <v>0.146315679835457</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>141.74704</v>
       </c>
       <c r="O11">
-        <v>0.6426570597336345</v>
+        <v>0.5686906263805706</v>
       </c>
       <c r="P11">
-        <v>0.6426570597336345</v>
+        <v>0.5686906263805704</v>
       </c>
       <c r="Q11">
-        <v>16.40767662046222</v>
+        <v>1.924846054844444</v>
       </c>
       <c r="R11">
-        <v>147.66908958416</v>
+        <v>17.3236144936</v>
       </c>
       <c r="S11">
-        <v>0.3899022598570893</v>
+        <v>0.08320835561492504</v>
       </c>
       <c r="T11">
-        <v>0.3899022598570893</v>
+        <v>0.08320835561492501</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,22 +1151,22 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.3472596666666667</v>
+        <v>0.04073833333333333</v>
       </c>
       <c r="H12">
-        <v>1.041779</v>
+        <v>0.122215</v>
       </c>
       <c r="I12">
-        <v>0.6067034570797279</v>
+        <v>0.146315679835457</v>
       </c>
       <c r="J12">
-        <v>0.6067034570797279</v>
+        <v>0.146315679835457</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>13.92629833333334</v>
+        <v>24.53173066666666</v>
       </c>
       <c r="N12">
-        <v>41.77889500000001</v>
+        <v>73.595192</v>
       </c>
       <c r="O12">
-        <v>0.1894184303222152</v>
+        <v>0.2952646900921413</v>
       </c>
       <c r="P12">
-        <v>0.1894184303222152</v>
+        <v>0.2952646900921412</v>
       </c>
       <c r="Q12">
-        <v>4.83604171713389</v>
+        <v>0.9993818211422222</v>
       </c>
       <c r="R12">
-        <v>43.52437545420501</v>
+        <v>8.994436390280001</v>
       </c>
       <c r="S12">
-        <v>0.1149208165111035</v>
+        <v>0.04320185386223716</v>
       </c>
       <c r="T12">
-        <v>0.1149208165111035</v>
+        <v>0.04320185386223716</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,22 +1213,22 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.3472596666666667</v>
+        <v>0.04073833333333333</v>
       </c>
       <c r="H13">
-        <v>1.041779</v>
+        <v>0.122215</v>
       </c>
       <c r="I13">
-        <v>0.6067034570797279</v>
+        <v>0.146315679835457</v>
       </c>
       <c r="J13">
-        <v>0.6067034570797279</v>
+        <v>0.146315679835457</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>8.218847999999999</v>
+        <v>7.746355333333334</v>
       </c>
       <c r="N13">
-        <v>24.656544</v>
+        <v>23.239066</v>
       </c>
       <c r="O13">
-        <v>0.1117885923419141</v>
+        <v>0.09323537902477132</v>
       </c>
       <c r="P13">
-        <v>0.1117885923419141</v>
+        <v>0.0932353790247713</v>
       </c>
       <c r="Q13">
-        <v>2.854074416864</v>
+        <v>0.3155736056877778</v>
       </c>
       <c r="R13">
-        <v>25.686669751776</v>
+        <v>2.84016245119</v>
       </c>
       <c r="S13">
-        <v>0.06782252543591567</v>
+        <v>0.01364179786672592</v>
       </c>
       <c r="T13">
-        <v>0.06782252543591567</v>
+        <v>0.01364179786672592</v>
       </c>
     </row>
   </sheetData>
